--- a/Documentacao/1.0/Testes/Casos de Teste - FR-B-002.xlsx
+++ b/Documentacao/1.0/Testes/Casos de Teste - FR-B-002.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cenário Positivo 1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
   <si>
     <t>Testador:</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Documentos:</t>
-  </si>
-  <si>
-    <t>Documento de Requisitos, Caso de Uso e Diagrama de Atividade 1.</t>
   </si>
   <si>
     <t>Passo 4:</t>
@@ -322,6 +319,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -332,9 +332,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,7 +750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -771,10 +768,10 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -782,11 +779,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="12">
+      <c r="C2" s="13">
         <f>COUNTIF(C11:C15,"FALHOU")</f>
         <v>0</v>
       </c>
-      <c r="D2" s="12" t="str">
+      <c r="D2" s="13" t="str">
         <f>IF(D16&lt;&gt;"",D16,"")</f>
         <v/>
       </c>
@@ -796,73 +793,73 @@
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -870,7 +867,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -880,7 +877,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -890,27 +887,27 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -971,10 +968,10 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -982,11 +979,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="12">
+      <c r="C2" s="13">
         <f>COUNTIF(C11:C15,"FALHOU")</f>
         <v>0</v>
       </c>
-      <c r="D2" s="12" t="str">
+      <c r="D2" s="13" t="str">
         <f>IF(D16&lt;&gt;"",D16,"")</f>
         <v/>
       </c>
@@ -996,73 +993,73 @@
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1070,7 +1067,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1080,7 +1077,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1090,27 +1087,27 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1152,7 +1149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1170,10 +1167,10 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1181,11 +1178,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="12">
+      <c r="C2" s="13">
         <f>COUNTIF(C11:C15,"FALHOU")</f>
         <v>0</v>
       </c>
-      <c r="D2" s="12" t="str">
+      <c r="D2" s="13" t="str">
         <f>IF(C16&lt;&gt;"",C16,"")</f>
         <v/>
       </c>
@@ -1195,54 +1192,54 @@
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
@@ -1258,10 +1255,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1269,7 +1266,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1279,7 +1276,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1289,36 +1286,36 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
